--- a/NYSE_profit_전기 유틸리티.xlsx
+++ b/NYSE_profit_전기 유틸리티.xlsx
@@ -16,235 +16,235 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
+    <t>WEC</t>
+  </si>
+  <si>
+    <t>ORA</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>DUK</t>
+  </si>
+  <si>
+    <t>ETR</t>
+  </si>
+  <si>
+    <t>DTE</t>
+  </si>
+  <si>
+    <t>EVRG</t>
+  </si>
+  <si>
+    <t>SOLN</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>OGE</t>
+  </si>
+  <si>
+    <t>PNM</t>
+  </si>
+  <si>
+    <t>IDA</t>
+  </si>
+  <si>
+    <t>CWEN</t>
+  </si>
+  <si>
     <t>EBR</t>
   </si>
   <si>
+    <t>FTS</t>
+  </si>
+  <si>
     <t>TAC</t>
   </si>
   <si>
-    <t>SO</t>
-  </si>
-  <si>
-    <t>ORA</t>
-  </si>
-  <si>
-    <t>WEC</t>
-  </si>
-  <si>
-    <t>ED</t>
-  </si>
-  <si>
-    <t>DUK</t>
-  </si>
-  <si>
-    <t>SOLN</t>
-  </si>
-  <si>
-    <t>OGE</t>
-  </si>
-  <si>
-    <t>EVRG</t>
-  </si>
-  <si>
-    <t>CWEN</t>
-  </si>
-  <si>
-    <t>ETR</t>
-  </si>
-  <si>
-    <t>PNM</t>
-  </si>
-  <si>
-    <t>DTE</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>FTS</t>
-  </si>
-  <si>
     <t>DTP</t>
   </si>
   <si>
+    <t>AGR</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>NEE</t>
+  </si>
+  <si>
+    <t>PNW</t>
+  </si>
+  <si>
     <t>ELP</t>
   </si>
   <si>
-    <t>AGR</t>
-  </si>
-  <si>
-    <t>IDA</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>NEE</t>
-  </si>
-  <si>
-    <t>PNW</t>
-  </si>
-  <si>
     <t>DUKB</t>
   </si>
   <si>
     <t>VST</t>
   </si>
   <si>
+    <t>AESC</t>
+  </si>
+  <si>
     <t>PAM</t>
   </si>
   <si>
-    <t>AESC</t>
+    <t>ELC</t>
   </si>
   <si>
     <t>POR</t>
   </si>
   <si>
+    <t>CIG</t>
+  </si>
+  <si>
+    <t>DTW</t>
+  </si>
+  <si>
+    <t>CEPU</t>
+  </si>
+  <si>
+    <t>ENO</t>
+  </si>
+  <si>
     <t>EIX</t>
   </si>
   <si>
+    <t>ENIC</t>
+  </si>
+  <si>
     <t>BEP</t>
   </si>
   <si>
+    <t>ENJ</t>
+  </si>
+  <si>
     <t>HE</t>
   </si>
   <si>
-    <t>DTW</t>
-  </si>
-  <si>
-    <t>ENO</t>
-  </si>
-  <si>
-    <t>ENJ</t>
+    <t>AES</t>
+  </si>
+  <si>
+    <t>PCG</t>
+  </si>
+  <si>
+    <t>AMPS</t>
   </si>
   <si>
     <t>BEPC</t>
   </si>
   <si>
-    <t>AES</t>
+    <t>KEP</t>
+  </si>
+  <si>
+    <t>NRG</t>
+  </si>
+  <si>
+    <t>EDN</t>
+  </si>
+  <si>
+    <t>KEN</t>
+  </si>
+  <si>
+    <t>DTB</t>
   </si>
   <si>
     <t>NEP</t>
   </si>
   <si>
-    <t>NRG</t>
+    <t>DTG</t>
+  </si>
+  <si>
+    <t>CHPT</t>
+  </si>
+  <si>
+    <t>VLTA</t>
+  </si>
+  <si>
+    <t>TVE</t>
   </si>
   <si>
     <t>ALE</t>
   </si>
   <si>
-    <t>KEN</t>
+    <t>TVC</t>
+  </si>
+  <si>
+    <t>WBX</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>LFG</t>
+  </si>
+  <si>
+    <t>AZRE</t>
   </si>
   <si>
     <t>PCGU</t>
   </si>
   <si>
-    <t>PCG</t>
-  </si>
-  <si>
-    <t>FE</t>
-  </si>
-  <si>
-    <t>DTB</t>
-  </si>
-  <si>
-    <t>TVE</t>
-  </si>
-  <si>
-    <t>DTG</t>
-  </si>
-  <si>
-    <t>CEPU</t>
-  </si>
-  <si>
-    <t>TVC</t>
-  </si>
-  <si>
-    <t>AMPS</t>
-  </si>
-  <si>
-    <t>KEP</t>
-  </si>
-  <si>
-    <t>CIG</t>
-  </si>
-  <si>
-    <t>CHPT</t>
-  </si>
-  <si>
-    <t>ELC</t>
-  </si>
-  <si>
-    <t>LFG</t>
-  </si>
-  <si>
-    <t>WBX</t>
-  </si>
-  <si>
-    <t>ENIC</t>
-  </si>
-  <si>
-    <t>AZRE</t>
-  </si>
-  <si>
-    <t>EDN</t>
-  </si>
-  <si>
-    <t>VLTA</t>
+    <t>ALP PR Q</t>
+  </si>
+  <si>
+    <t>BEP PR A</t>
+  </si>
+  <si>
+    <t>CIG.C</t>
+  </si>
+  <si>
+    <t>CMS PR B</t>
+  </si>
+  <si>
+    <t>CWEN.A</t>
+  </si>
+  <si>
+    <t>DTY</t>
+  </si>
+  <si>
+    <t>DUK PR A</t>
+  </si>
+  <si>
+    <t>EAI</t>
+  </si>
+  <si>
+    <t>EBR.B</t>
+  </si>
+  <si>
+    <t>EMP</t>
+  </si>
+  <si>
+    <t>ETI PR</t>
+  </si>
+  <si>
+    <t>NEE PR O</t>
   </si>
   <si>
     <t>NEE PR P</t>
   </si>
   <si>
-    <t>CWEN.A</t>
-  </si>
-  <si>
-    <t>EBR.B</t>
+    <t>NEE PR Q</t>
+  </si>
+  <si>
+    <t>NMK PR B</t>
+  </si>
+  <si>
+    <t>NMK PR C</t>
+  </si>
+  <si>
+    <t>SCE PR L</t>
   </si>
   <si>
     <t>SMR</t>
-  </si>
-  <si>
-    <t>CIG.C</t>
-  </si>
-  <si>
-    <t>NEE PR Q</t>
-  </si>
-  <si>
-    <t>NEE PR O</t>
-  </si>
-  <si>
-    <t>DUK PR A</t>
-  </si>
-  <si>
-    <t>SCE PR L</t>
-  </si>
-  <si>
-    <t>DTY</t>
-  </si>
-  <si>
-    <t>EMP</t>
-  </si>
-  <si>
-    <t>ALP PR Q</t>
-  </si>
-  <si>
-    <t>BEP PR A</t>
-  </si>
-  <si>
-    <t>NMK PR B</t>
-  </si>
-  <si>
-    <t>NMK PR C</t>
-  </si>
-  <si>
-    <t>CMS PR B</t>
-  </si>
-  <si>
-    <t>ETI PR</t>
-  </si>
-  <si>
-    <t>EAI</t>
   </si>
 </sst>
 </file>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.55161663179932</v>
+        <v>10.52022552490234</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.36110813908265</v>
+        <v>8.666847229003906</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -634,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.70664754229425</v>
+        <v>8.342948913574219</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -642,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.187404214359</v>
+        <v>8.154548645019531</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -650,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.65937251434204</v>
+        <v>7.919853210449219</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -658,7 +658,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.808650379177731</v>
+        <v>5.814132690429688</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -666,7 +666,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.95883981852632</v>
+        <v>5.32855224609375</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -674,7 +674,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.035592822485559</v>
+        <v>3.731372833251953</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -682,7 +682,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.696022762034981</v>
+        <v>3.523857116699219</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -690,7 +690,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.0862115985445</v>
+        <v>3.083671569824219</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -698,7 +698,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.826718759713967</v>
+        <v>2.463249206542969</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -706,7 +706,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.574118395541583</v>
+        <v>2.338993072509766</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -714,7 +714,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.216192090363769</v>
+        <v>2.1312255859375</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -722,7 +722,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.445964009935843</v>
+        <v>1.927066802978516</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -730,7 +730,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.827019038658208</v>
+        <v>1.726724624633789</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -738,7 +738,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.607938346015294</v>
+        <v>1.639118194580078</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -746,7 +746,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.846972576539475</v>
+        <v>1.455435752868652</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -754,7 +754,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.719814099685469</v>
+        <v>1.399864196777344</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -762,7 +762,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.392743196167202</v>
+        <v>1.063724517822266</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -770,7 +770,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.064965574543653</v>
+        <v>0.9621047973632812</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -778,7 +778,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.229717175288791</v>
+        <v>0.8832931518554688</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -786,7 +786,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.134948654540557</v>
+        <v>0.718017578125</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -794,7 +794,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.025417412069674</v>
+        <v>0.1652226448059082</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -802,7 +802,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5017827426343713</v>
+        <v>0.1267166137695312</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -810,7 +810,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.4980409185080692</v>
+        <v>0.1119022369384766</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -818,7 +818,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.4295949847749059</v>
+        <v>0.09722137451171875</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -826,7 +826,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.1151764885587214</v>
+        <v>0.09000015258789062</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -834,7 +834,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.7764647576334438</v>
+        <v>-0.1324000358581543</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -842,7 +842,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.8510392015876556</v>
+        <v>-0.3872795104980469</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -850,7 +850,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-1.704874645603427</v>
+        <v>-0.3942644596099854</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -858,7 +858,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-1.749664157894226</v>
+        <v>-0.4631805419921875</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -866,7 +866,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-1.894927502870403</v>
+        <v>-0.4700000286102295</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -874,7 +874,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-1.942901603723279</v>
+        <v>-0.4899997711181641</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -882,7 +882,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-2.589016914753106</v>
+        <v>-0.5283966064453125</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -890,7 +890,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-3.406792334879405</v>
+        <v>-0.5500000715255737</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -898,7 +898,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-3.421881175159225</v>
+        <v>-0.6070556640625</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -906,7 +906,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-3.572037052913202</v>
+        <v>-0.6400051116943359</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -914,7 +914,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-4.011093342061134</v>
+        <v>-0.7110824584960938</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -922,7 +922,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-5.451832122051381</v>
+        <v>-0.7210254669189453</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -930,7 +930,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-6.011079849476908</v>
+        <v>-1.050000190734863</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -938,7 +938,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-6.823117340011331</v>
+        <v>-1.100000381469727</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -946,7 +946,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-9.234830266519678</v>
+        <v>-1.262294769287109</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -954,7 +954,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-9.65876476920876</v>
+        <v>-1.489999771118164</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -962,7 +962,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-11.78358021784858</v>
+        <v>-1.503498077392578</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -970,7 +970,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-11.84518774600811</v>
+        <v>-2.360000133514404</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -978,7 +978,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-12.71841202343181</v>
+        <v>-2.604255676269531</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -986,7 +986,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-12.77173967620037</v>
+        <v>-2.630107879638672</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -994,7 +994,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-13.96817408313575</v>
+        <v>-2.75604248046875</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-14.56954110835142</v>
+        <v>-2.885196685791016</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1010,7 +1010,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-15.3608226847073</v>
+        <v>-2.950000762939453</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-16.74682092796386</v>
+        <v>-2.970000028610229</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-20.31680902160111</v>
+        <v>-2.978939056396484</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1034,7 +1034,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-20.61021644353277</v>
+        <v>-3.393405914306641</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1042,7 +1042,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-24.7001073897591</v>
+        <v>-3.633628845214844</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1050,7 +1050,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-31.87348199102448</v>
+        <v>-3.930000305175781</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1058,7 +1058,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-32.16374615532621</v>
+        <v>-4.006076812744141</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1066,7 +1066,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-34.07854773200679</v>
+        <v>-4.529999732971191</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1074,7 +1074,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-35.9208534528489</v>
+        <v>-5.639999389648438</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1082,7 +1082,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-66.00000063578288</v>
+        <v>-7.264907836914062</v>
       </c>
     </row>
     <row r="61" spans="1:2">
